--- a/Data/Standard_N35_values_dynamic.xlsx
+++ b/Data/Standard_N35_values_dynamic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_290\Notebooks_290\Labs_and_Sensors\Arrhenius_Curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF38E9BC-F555-46B2-ABA4-A32C822626F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A69142-30AA-4A9B-8F1C-B794D69AEA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13110" yWindow="375" windowWidth="14100" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="19890" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>Temperature (°C)</t>
   </si>
   <si>
-    <t>Kinematic viscosity (cP)</t>
+    <t>Dynamic viscosity (cP)</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
